--- a/data/NC/NC2022-elections-analysis.xlsx
+++ b/data/NC/NC2022-elections-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB451CD-51BC-D24D-92FE-6F2DFA404B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45E97DE-BF47-B648-94D4-AD75D88D0CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{7357A454-9B64-D04B-9AA4-244A1D27914D}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{AC2A7E28-C21D-6246-A58E-377DD932C2B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8217918E-A560-A64E-9558-598D78CEB8A2}" name="NC2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{AA3513C8-BAD2-2747-B8E1-1A08DFE4C2B2}" name="NC2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-elections-analysis.csv" comma="1">
       <textFields count="26">
         <textField type="text"/>
         <textField type="text"/>
         <textField type="text"/>
-        <textField type="text"/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>XX</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve"> composite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14</t>
   </si>
   <si>
     <t xml:space="preserve"> P2020</t>
@@ -240,7 +237,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC2022-elections-analysis" connectionId="1" xr16:uid="{CA8F333B-6FB9-7249-8DB9-D36677A2D5D0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC2022-elections-analysis" connectionId="1" xr16:uid="{EB628E2C-25A9-0243-9EDE-4D771A3DD39A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA16E99-0D5B-8A49-8AD8-0EAC0775BC34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44C347A-6769-1E41-BA49-3D493D0DA666}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -576,7 +573,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -656,8 +653,8 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
+      <c r="D2">
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0.49433300000000002</v>
@@ -734,10 +731,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0.49314400000000003</v>
@@ -814,10 +811,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0.48094100000000001</v>
@@ -894,10 +891,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0.49085200000000001</v>
@@ -974,10 +971,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0.47044399999999997</v>
@@ -1054,10 +1051,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0.52287499999999998</v>
@@ -1134,10 +1131,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0.50124299999999999</v>

--- a/data/NC/NC2022-elections-analysis.xlsx
+++ b/data/NC/NC2022-elections-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45E97DE-BF47-B648-94D4-AD75D88D0CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EE07D6-C7B4-044F-A4F7-F0C5FC7D223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{AC2A7E28-C21D-6246-A58E-377DD932C2B9}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{AA3513C8-BAD2-2747-B8E1-1A08DFE4C2B2}" name="NC2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{EFDDDEA6-DC2C-A845-9DC4-073B3AC56A28}" name="NC2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-elections-analysis.csv" comma="1">
       <textFields count="26">
         <textField type="text"/>
@@ -81,106 +81,106 @@
     <t>XX</t>
   </si>
   <si>
-    <t xml:space="preserve"> YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FPTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BS_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BV_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DECL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BS_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MM'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BIG_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LIL_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L_Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L_Sf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U_Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U_Sf</t>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>ELECTION</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>S_V</t>
+  </si>
+  <si>
+    <t>FPTP</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>BS_50</t>
+  </si>
+  <si>
+    <t>BV_50</t>
+  </si>
+  <si>
+    <t>DECL</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>BS_V</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MM'</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>BIG_R</t>
+  </si>
+  <si>
+    <t>LIL_R</t>
+  </si>
+  <si>
+    <t>R_V</t>
+  </si>
+  <si>
+    <t>L_Vf</t>
+  </si>
+  <si>
+    <t>L_Sf</t>
+  </si>
+  <si>
+    <t>U_Vf</t>
+  </si>
+  <si>
+    <t>U_Sf</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> composite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AG2020</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>P2020</t>
+  </si>
+  <si>
+    <t>P2016</t>
+  </si>
+  <si>
+    <t>S2020</t>
+  </si>
+  <si>
+    <t>S2016</t>
+  </si>
+  <si>
+    <t>G2020</t>
+  </si>
+  <si>
+    <t>AG2020</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC2022-elections-analysis" connectionId="1" xr16:uid="{EB628E2C-25A9-0243-9EDE-4D771A3DD39A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC2022-elections-analysis" connectionId="1" xr16:uid="{AA9D622A-7780-534A-959B-7760DA48B616}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44C347A-6769-1E41-BA49-3D493D0DA666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB3508-F448-BA45-B0FD-F644B5D6BA5B}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -544,12 +544,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -557,7 +557,7 @@
     <col min="16" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.1640625" bestFit="1" customWidth="1"/>

--- a/data/NC/NC2022-elections-analysis.xlsx
+++ b/data/NC/NC2022-elections-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/NC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EE07D6-C7B4-044F-A4F7-F0C5FC7D223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD9D5FF-95D3-DE47-85F1-2EC35417005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="NC2022_elections_analysis" localSheetId="0">Sheet1!$A$1:$Z$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{EFDDDEA6-DC2C-A845-9DC4-073B3AC56A28}" name="NC2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-elections-analysis.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/NC/NC2022-elections-analysis.csv" comma="1">
       <textFields count="26">
         <textField type="text"/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>XX</t>
   </si>
@@ -181,14 +181,37 @@
   </si>
   <si>
     <t>AG2020</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,13 +235,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,9 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB3508-F448-BA45-B0FD-F644B5D6BA5B}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -547,99 +595,92 @@
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -656,10 +697,10 @@
       <c r="D2">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>0.49433300000000002</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>6.7542600000000004</v>
       </c>
       <c r="G2">
@@ -668,58 +709,58 @@
       <c r="H2">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>1.0089999999999999E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>0.18129799999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>1.1770000000000001E-3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>6.2189999999999997E-3</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>1.1886000000000001E-2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <v>7.1349999999999998E-3</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="6">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="6">
         <v>6.7790000000000003E-3</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="6">
         <v>-5.574E-3</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="8">
         <v>3.097378</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="8">
         <v>2.6264539999999998</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="8">
         <v>3.1682139999999999</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="6">
         <v>0.47</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="6">
         <v>0.41490899999999997</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="6">
         <v>0.53923399999999999</v>
       </c>
     </row>
@@ -736,10 +777,10 @@
       <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.49314400000000003</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>6.6423750000000004</v>
       </c>
       <c r="G3">
@@ -748,58 +789,58 @@
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>8.8109999999999994E-3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>3.4659999999999999E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>1.229868</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>3.3279999999999998E-3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>1.1833E-2</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <v>8.4019999999999997E-3</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>1.8689000000000001E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>9.0500000000000008E-3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="6">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="6">
         <v>8.9949999999999995E-3</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="6">
         <v>-3.823E-3</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="8">
         <v>3.7258849999999999</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="8">
         <v>2.4298670000000002</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="8">
         <v>2.9546109999999999</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="6">
         <v>0.47</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="6">
         <v>0.41522599999999998</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="6">
         <v>0.53077099999999999</v>
       </c>
     </row>
@@ -816,10 +857,10 @@
       <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.48094100000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>6.302155</v>
       </c>
       <c r="G4">
@@ -828,58 +869,58 @@
       <c r="H4">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>5.1710000000000002E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>2.0240000000000002E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>-2.5586999999999999E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>4.679E-3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>1.1728000000000001E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>3.0786999999999998E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <v>8.3809999999999996E-3</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <v>8.1440000000000002E-3</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="6">
         <v>-1.9359000000000001E-2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="8">
         <v>2.6153559999999998</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="8">
         <v>2.2683369999999998</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="8">
         <v>2.773323</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="6">
         <v>0.46</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="6">
         <v>0.39558399999999999</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="6">
         <v>0.505</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="6">
         <v>0.50760499999999997</v>
       </c>
     </row>
@@ -896,10 +937,10 @@
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.49085200000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>6.5997760000000003</v>
       </c>
       <c r="G5">
@@ -908,58 +949,58 @@
       <c r="H5">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>4.0480000000000004E-3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>1.4419999999999999E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>0.29150900000000002</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>1.957E-3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>1.0291E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>3.297E-3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>1.9439000000000001E-2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>8.8140000000000007E-3</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>8.3320000000000009E-3</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <v>-8.9119999999999998E-3</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="8">
         <v>3.1249959999999999</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="8">
         <v>2.6498569999999999</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="8">
         <v>3.2372239999999999</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="6">
         <v>0.47</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="6">
         <v>0.412385</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="6">
         <v>0.53950600000000004</v>
       </c>
     </row>
@@ -976,10 +1017,10 @@
       <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.47044399999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>5.7348100000000004</v>
       </c>
       <c r="G6">
@@ -988,58 +1029,58 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>1.585E-3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>4.8299999999999998E-4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>-0.152085</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>4.5570000000000003E-3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>3.1259000000000002E-2</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>-4.4320000000000002E-3</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>6.0815000000000001E-2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>1.3359999999999999E-3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>5.8859999999999997E-3</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="6">
         <v>-3.125E-2</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="8">
         <v>3.0576099999999999</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="8">
         <v>2.8363930000000002</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="8">
         <v>3.6427719999999999</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="6">
         <v>0.45</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="6">
         <v>0.34323999999999999</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="6">
         <v>0.495</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="6">
         <v>0.48240499999999997</v>
       </c>
     </row>
@@ -1056,10 +1097,10 @@
       <c r="D7">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.52287499999999998</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>7.8569370000000003</v>
       </c>
       <c r="G7">
@@ -1068,139 +1109,375 @@
       <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>1.676E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>5.9699999999999998E-4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>6.1559999999999997E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>5.2909999999999997E-3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>-1.546E-2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>3.7309999999999999E-3</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>-3.8335000000000001E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>4.4010000000000004E-3</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>1.84E-4</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <v>4.2170000000000003E-3</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <v>2.2841E-2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="8">
         <v>2.6758380000000002</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="8">
         <v>2.816017</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="8">
         <v>3.6105230000000001</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="6">
         <v>0.5</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="6">
         <v>0.49832399999999999</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="6">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="6">
         <v>0.62992300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.50124299999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>7.0194879999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>1.8270000000000001E-3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>0.161607</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>1.8220000000000001E-3</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="7">
         <v>-1.4899999999999999E-4</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>6.0390000000000001E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="7">
         <v>3.3199999999999999E-4</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="7">
         <v>5.7070000000000003E-3</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="7">
         <v>1.3110000000000001E-3</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="9">
         <v>1.119891</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="9">
         <v>2.6311810000000002</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="9">
         <v>3.1889110000000001</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="7">
         <v>0.48</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="7">
         <v>0.44360100000000002</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="7">
         <v>0.56820199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E2:E8)</f>
+        <v>0.49340457142857147</v>
+      </c>
+      <c r="F10" s="8">
+        <f>AVERAGE(F2:F8)</f>
+        <v>6.7014001428571444</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10:Z10" si="0">AVERAGE(I2:I8)</f>
+        <v>3.6925714285714279E-3</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3878571428571432E-3</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24973857142857142</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1148571428571436E-3</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>8.1377142857142863E-3</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4334285714285716E-3</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4733142857142856E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2918571428571433E-3</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>4.2585714285714281E-4</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8657142857142866E-3</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.3951428571428579E-3</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7738505714285711</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6083008571428574</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2250825714285716</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6">
+        <f>STDEV(E2:E8)/SQRT(COUNT(E2:E8))</f>
+        <v>6.2104387424842741E-3</v>
+      </c>
+      <c r="F11" s="8">
+        <f>STDEV(F2:F8)/SQRT(COUNT(F2:F8))</f>
+        <v>0.24624533352304881</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:V11" si="1">STDEV(I2:I8)/SQRT(COUNT(I2:I8))</f>
+        <v>9.9313967888142902E-4</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0224012187530282E-4</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1723456713878711</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8474209356069002E-4</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="1"/>
+        <v>5.2913300052529122E-3</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.431146524346707E-3</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1406837933426414E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2773722241728127E-4</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.601180261960694E-4</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.4813893698238267E-4</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3874634783358895E-3</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30803414053144484</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="1"/>
+        <v>7.6402137485191632E-2</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1200158913415928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:F12" si="2">E11/E10</f>
+        <v>1.2586909611524219E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6745355936627005E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <f>I11/I10</f>
+        <v>0.26895611854572904</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" ref="J12:V12" si="3">J11/J10</f>
+        <v>0.28982818869038796</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.6901043375158582</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.21983097848673772</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.65022312402166949</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.58811938889438464</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.77422977867184684</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>8.6087427402797026E-2</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.37598999777674807</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="3"/>
+        <v>9.4402258819739446E-2</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.99879918572915205</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.11104929144499771</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9291919019220361E-2</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="3"/>
+        <v>3.7213277081594526E-2</v>
       </c>
     </row>
   </sheetData>
